--- a/BackTest/2020-01-25 BackTest TRX.xlsx
+++ b/BackTest/2020-01-25 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-767025.4472660904</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-608987.3194660904</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-685420.9804660904</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-942454.1996660903</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-918686.7895924103</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1014782.17679241</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1051604.67249241</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1051604.67249241</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1466574.99169241</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1855682.94529241</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2168713.88339241</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2168713.88339241</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2184380.576792411</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2182470.576792411</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2246170.576792411</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2098692.746392411</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2961025.37019241</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3446777.26229241</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3704154.41709241</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3441960.66285793</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3578740.25345793</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3571932.34845793</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3571478.45845793</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3571478.45845793</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3363385.63865793</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3369155.63865793</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4011221.792000451</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4016506.946600451</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4016506.946600451</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3933692.557100451</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4191350.196800451</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4054880.708100451</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4054880.708100451</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4083181.456859251</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4085620.08465925</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3858676.422345301</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3958676.422345301</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-6053979.4842453</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-6072397.6845453</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-6082397.6845453</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-6269205.3129453</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-6269204.7180453</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-6269152.7180453</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-6215903.33603608</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-6150994.753336081</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-6161692.381136081</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-6161692.381136081</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-7327142.798736081</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-7342342.798736081</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-7385561.26103608</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-7102511.61133608</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-7087898.953836081</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-7087898.953836081</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-8626252.789113468</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15202,11 +15202,17 @@
         <v>-12231185.01484946</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>18.33</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,15 +15241,17 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>18.32</v>
       </c>
-      <c r="J450" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,15 +15280,15 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15311,12 +15319,12 @@
         <v>-12231135.01484946</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15350,12 +15358,12 @@
         <v>-11837690.65404946</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,12 +15397,12 @@
         <v>-11941536.02784946</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,12 +15436,12 @@
         <v>-12005042.82704946</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15467,12 +15475,12 @@
         <v>-12004771.97114481</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15509,9 +15517,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15548,9 +15554,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15584,12 +15588,12 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15623,12 +15627,12 @@
         <v>-12303871.97114481</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15662,14 +15666,12 @@
         <v>-12336180.22264481</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>18.35</v>
       </c>
-      <c r="J461" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15703,12 +15705,12 @@
         <v>-12610954.52684481</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15742,14 +15744,12 @@
         <v>-12368154.52684481</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>18.32</v>
       </c>
-      <c r="J463" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15783,14 +15783,12 @@
         <v>-12368154.52684481</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>18.36</v>
       </c>
-      <c r="J464" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15824,14 +15822,12 @@
         <v>-12367799.64274481</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>18.36</v>
       </c>
-      <c r="J465" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15865,14 +15861,12 @@
         <v>-12402704.20534481</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>18.44</v>
       </c>
-      <c r="J466" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,14 +15900,12 @@
         <v>-12402295.33074481</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>18.35</v>
       </c>
-      <c r="J467" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15947,14 +15939,12 @@
         <v>-12509315.57674481</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>18.39</v>
       </c>
-      <c r="J468" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,14 +15978,12 @@
         <v>-12509315.57674481</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>18.35</v>
       </c>
-      <c r="J469" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16029,14 +16017,12 @@
         <v>-12409220.11974481</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>18.35</v>
       </c>
-      <c r="J470" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16070,14 +16056,12 @@
         <v>-12405058.04734481</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>18.43</v>
       </c>
-      <c r="J471" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16111,14 +16095,12 @@
         <v>-12354977.30099544</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>18.45</v>
       </c>
-      <c r="J472" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16152,14 +16134,12 @@
         <v>-12381882.16879544</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>18.49</v>
       </c>
-      <c r="J473" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16193,12 +16173,12 @@
         <v>-12381882.16879544</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16235,9 +16215,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16274,9 +16252,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,9 +16289,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16352,9 +16326,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16391,9 +16363,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16430,9 +16400,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,9 +16437,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16508,9 +16474,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,9 +16511,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16586,9 +16548,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16625,9 +16585,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16664,9 +16622,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16703,9 +16659,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16742,9 +16696,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16781,9 +16733,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,9 +16770,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16859,9 +16807,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16898,9 +16844,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16937,9 +16881,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16976,9 +16918,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17015,9 +16955,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17051,12 +16989,12 @@
         <v>-12673997.36019544</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17090,14 +17028,10 @@
         <v>-12910232.70909544</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J497" t="n">
-        <v>18.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17131,14 +17065,10 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="J498" t="n">
-        <v>18.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,14 +17102,12 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>18.37</v>
       </c>
-      <c r="J499" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,14 +17141,12 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>18.37</v>
       </c>
-      <c r="J500" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17254,14 +17180,12 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>18.37</v>
       </c>
-      <c r="J501" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,14 +17219,12 @@
         <v>-12941653.94729544</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>18.37</v>
       </c>
-      <c r="J502" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17336,14 +17258,12 @@
         <v>-12936424.27939544</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>18.37</v>
       </c>
-      <c r="J503" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17377,12 +17297,12 @@
         <v>-12936091.30583905</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>18.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,9 +17339,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,9 +17376,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,9 +17413,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17536,9 +17450,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17575,9 +17487,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,9 +17524,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,9 +17561,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17692,9 +17598,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17731,9 +17635,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17770,9 +17672,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17809,9 +17709,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17848,9 +17746,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17887,9 +17783,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17926,9 +17820,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17965,9 +17857,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,9 +17894,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18043,9 +17931,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18082,9 +17968,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18121,9 +18005,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18160,9 +18042,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18199,9 +18079,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18238,9 +18116,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18277,9 +18153,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18316,9 +18190,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18355,9 +18227,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18394,9 +18264,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18430,12 +18298,10 @@
         <v>-12487950.023466</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18469,12 +18335,10 @@
         <v>-12484907.02399315</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18508,12 +18372,10 @@
         <v>-12542996.14019315</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18547,12 +18409,10 @@
         <v>-12542996.14019315</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18586,12 +18446,10 @@
         <v>-12497742.76859315</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18628,9 +18486,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18664,12 +18520,10 @@
         <v>-12515616.13246583</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18706,9 +18560,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18745,9 +18597,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18784,9 +18634,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,9 +18671,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18862,9 +18708,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18901,9 +18745,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18940,9 +18782,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18979,9 +18819,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19018,9 +18856,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,9 +18893,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,9 +18930,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19135,9 +18967,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19174,9 +19004,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19213,9 +19041,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19252,9 +19078,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19291,9 +19115,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19330,9 +19152,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19369,9 +19189,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19408,9 +19226,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19447,9 +19263,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19486,9 +19300,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19525,9 +19337,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19564,9 +19374,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19603,9 +19411,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19642,9 +19448,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19681,9 +19485,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19720,9 +19522,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19759,9 +19559,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19798,9 +19596,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,9 +19633,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19876,9 +19670,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19915,9 +19707,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19954,9 +19744,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19993,9 +19781,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20032,9 +19818,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20071,9 +19855,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20110,9 +19892,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20149,9 +19929,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20185,19 +19963,17 @@
         <v>-13613559.72697061</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>18.32</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L576" t="n">
-        <v>1.031026200873363</v>
+        <v>1</v>
       </c>
       <c r="M576" t="inlineStr"/>
     </row>
@@ -20228,7 +20004,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20261,7 +20041,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20294,7 +20078,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20327,7 +20115,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20360,7 +20152,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20393,7 +20189,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20426,7 +20226,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20459,7 +20263,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20492,7 +20300,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20525,7 +20337,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20558,7 +20374,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20591,7 +20411,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20624,7 +20448,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20657,7 +20485,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20690,7 +20522,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20723,7 +20559,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20756,7 +20596,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20789,7 +20633,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20822,7 +20670,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20855,7 +20707,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20888,7 +20744,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20921,7 +20781,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20954,7 +20818,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20987,7 +20855,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21020,7 +20892,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21053,7 +20929,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21086,7 +20966,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21119,7 +21003,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21152,7 +21040,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21185,7 +21077,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21218,7 +21114,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21251,7 +21151,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21284,7 +21188,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21317,7 +21225,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21350,13 +21262,17 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
       <c r="M611" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest TRX.xlsx
+++ b/BackTest/2020-01-25 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-761936.3887660904</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-608987.3194660904</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-685420.9804660904</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-942454.1996660903</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-918635.8211924103</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-918686.7895924103</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-868686.7895924103</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1014782.17679241</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1051604.67249241</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1051604.67249241</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1466574.99169241</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1855682.94529241</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2168713.88339241</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2168713.88339241</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1940935.48339241</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2184380.576792411</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2182470.576792411</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2246170.576792411</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2098692.746392411</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2961025.37019241</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3446777.26229241</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3704154.41709241</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3441960.66285793</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3578740.25345793</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3571932.34845793</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3571478.45845793</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3571478.45845793</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3363385.63865793</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3369155.63865793</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3718840.573500451</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3915015.205900451</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3914215.205900451</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3939792.495900451</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4011221.792000451</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4009656.846800451</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4021854.650500451</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4068559.980900451</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4065783.943800451</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4105903.147100451</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4085706.994500451</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4132761.895800451</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4163741.694100451</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4103668.498700451</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4176740.0839453</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-6053979.4842453</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-6072397.6845453</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-6082397.6845453</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-6269205.3129453</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-6269204.7180453</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-6269152.7180453</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -9064,11 +9064,17 @@
         <v>-9756492.346147561</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>18.44</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9103,17 @@
         <v>-9582756.885247562</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>18.43</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9142,17 @@
         <v>-9728069.246147562</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>18.49</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9181,17 @@
         <v>-9501963.102335092</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>18.46</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9224,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9261,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9298,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9335,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9372,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9409,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9446,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9483,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9520,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9557,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9594,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9631,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9668,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9705,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +9742,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +9779,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +9816,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +9853,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +9890,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +9927,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +9964,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10001,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10038,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10075,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10112,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10149,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10186,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10223,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10260,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10297,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10334,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10371,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10408,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10445,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10482,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10519,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10556,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10593,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10630,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10667,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10704,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10741,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10778,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10815,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10852,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10889,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10926,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10963,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11000,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11037,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11074,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11111,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11148,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11185,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11222,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11259,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11296,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11333,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11370,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11407,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11444,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11481,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11518,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11555,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11592,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11629,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11666,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11703,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11740,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11777,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11814,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11851,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11888,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11925,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11962,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11999,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12036,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12073,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12110,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12147,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12184,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12221,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12258,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12295,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12332,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12369,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12406,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12443,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12480,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12517,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12554,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12591,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12628,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12665,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12702,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12739,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12776,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12813,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12850,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12887,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12924,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12961,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12998,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13035,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13072,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13109,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13146,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13183,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13220,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13257,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13294,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13331,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13368,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13405,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13442,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13479,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13516,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13553,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13590,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13627,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13664,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13701,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13738,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13775,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13812,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13849,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13886,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13923,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13960,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13997,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +14034,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +14071,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +14108,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14145,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14182,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14219,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14256,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14293,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14330,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14367,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14404,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14441,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14478,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14515,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14552,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14589,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14626,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14663,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14700,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14737,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14774,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14811,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14848,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14885,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14922,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14959,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14996,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +15033,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +15070,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15107,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15144,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15181,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15218,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15255,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15292,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15329,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15366,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15403,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15440,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15477,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15514,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15551,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15588,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15625,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15662,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15699,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15736,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15773,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15810,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15847,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15884,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15917,17 @@
         <v>-12185407.71514946</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>18.39</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15210,7 +15964,7 @@
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -16095,11 +16849,9 @@
         <v>-12354977.30099544</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>18.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16134,11 +16886,9 @@
         <v>-12381882.16879544</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>18.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16173,11 +16923,9 @@
         <v>-12381882.16879544</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>18.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16212,9 +16960,11 @@
         <v>-12352670.08199544</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>18.45</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16915,9 +17665,11 @@
         <v>-12681512.31539544</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>18.41</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16952,9 +17704,11 @@
         <v>-12686497.36019544</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -16989,11 +17743,9 @@
         <v>-12673997.36019544</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>18.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17028,9 +17780,11 @@
         <v>-12910232.70909544</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17595,18 +18349,16 @@
         <v>-12344075.05932897</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="inlineStr"/>
     </row>
     <row r="513">
@@ -17632,15 +18384,11 @@
         <v>-12391012.59302897</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17669,15 +18417,11 @@
         <v>-12291012.59302897</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17706,15 +18450,11 @@
         <v>-12288080.99622897</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17743,15 +18483,11 @@
         <v>-12785100.06332897</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17780,15 +18516,11 @@
         <v>-12705200.06332897</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17817,15 +18549,11 @@
         <v>-12905200.06332897</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17854,15 +18582,11 @@
         <v>-13215371.04272897</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17891,15 +18615,11 @@
         <v>-13211577.47142897</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17932,11 +18652,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17969,11 +18685,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18006,11 +18718,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18043,11 +18751,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18080,11 +18784,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18117,11 +18817,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18154,11 +18850,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18191,11 +18883,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18228,11 +18916,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18265,11 +18949,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18302,11 +18982,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18339,11 +19015,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18376,11 +19048,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18413,11 +19081,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18450,11 +19114,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +19147,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18520,15 +19176,11 @@
         <v>-12515616.13246583</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18561,11 +19213,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18598,11 +19246,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18635,11 +19279,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18672,11 +19312,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18709,11 +19345,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18746,11 +19378,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18783,11 +19411,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18820,11 +19444,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18857,11 +19477,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18894,11 +19510,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +19543,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18968,11 +19576,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19005,11 +19609,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19042,11 +19642,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19079,11 +19675,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19116,11 +19708,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19153,11 +19741,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19190,11 +19774,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19227,11 +19807,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19264,11 +19840,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19301,11 +19873,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19338,11 +19906,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19375,11 +19939,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19412,11 +19972,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19449,11 +20005,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19486,11 +20038,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19523,11 +20071,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19560,11 +20104,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19597,11 +20137,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19634,11 +20170,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19671,11 +20203,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19708,11 +20236,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19745,11 +20269,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19782,11 +20302,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19819,11 +20335,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19856,11 +20368,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19893,11 +20401,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19930,11 +20434,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19967,11 +20467,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20004,11 +20500,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20041,11 +20533,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20078,11 +20566,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20115,11 +20599,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20632,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20189,11 +20665,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20226,11 +20698,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20263,11 +20731,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20300,11 +20764,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20337,11 +20797,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20374,11 +20830,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20411,11 +20863,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20448,11 +20896,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20485,11 +20929,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20522,11 +20962,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20559,11 +20995,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20596,11 +21028,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20633,11 +21061,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20670,11 +21094,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20707,11 +21127,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20744,11 +21160,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20781,11 +21193,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20818,11 +21226,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20855,11 +21259,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20892,11 +21292,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20929,11 +21325,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20966,11 +21358,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21003,11 +21391,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21040,11 +21424,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21077,11 +21457,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21114,11 +21490,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21151,11 +21523,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21188,11 +21556,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21225,11 +21589,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21262,17 +21622,13 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
       <c r="M611" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>